--- a/NEW/src/consistency_result.xlsx
+++ b/NEW/src/consistency_result.xlsx
@@ -484,12 +484,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>All 10 songs in the playlist are identical, creating a perfectly consistent atmosphere suitable for focus and concentration. There is no variation in artist or track, ensuring a uniform listening experience.</t>
+          <t>플레이리스트에 있는 모든 곡이 피아노 중심의 클래식 분위기를 가지고 있어서, 'focus'와 관련된 분위기를 잘 유지하고 있습니다. 또한, 9곡이 같은 곡으로 반복되고 있는 점에서 매우 높은 일관성을 보여줍니다. 두 곡 모두 같은 아티스트의 작품이기 때문에, 연속 재생 시 분위기가 여전히 유지됩니다.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche']</t>
+          <t>['Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Yiruma - River Flows in You', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche', 'Ludovico Einaudi - Nuvole Bianche']</t>
         </is>
       </c>
     </row>
@@ -512,12 +512,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The playlist is very consistent with the gym/active context, focusing on upbeat and energetic pop tracks by artists like Dua Lipa and Katy Perry, which are well-suited for workout sessions.</t>
+          <t>The playlist is highly consistent as it includes only two songs, both by the same artist, Dua Lipa, with repeated tracks 'Physical' and 'Don't Start Now'. These songs are tagged as 'workout_pop', aligning perfectly with the gym/active context. There is no variation in the playlist that would disrupt the intended atmosphere.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Dua Lipa - Physical', "Dua Lipa - Don't Start Now", "Dua Lipa - Don't Start Now", 'Dua Lipa - Physical', 'Dua Lipa - Physical', 'Katy Perry - Roar', 'Dua Lipa - Physical', 'Dua Lipa - Physical', 'Dua Lipa - Physical', 'Dua Lipa - Physical']</t>
+          <t>['Dua Lipa - Physical', "Dua Lipa - Don't Start Now", 'Dua Lipa - Physical', 'Dua Lipa - Physical', 'Dua Lipa - Physical', "Dua Lipa - Don't Start Now", 'Dua Lipa - Physical', "Dua Lipa - Don't Start Now", 'Dua Lipa - Physical', 'Dua Lipa - Physical']</t>
         </is>
       </c>
     </row>
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The playlist is highly consistent with the context 'home/sleep'. All the songs are tagged as calm, sleep, or relaxing ballads, which align well with the need for soothing and peaceful music ideal for a sleep environment. There are no significant deviations in mood or tempo.</t>
+          <t>The playlist consists of repeated songs by Norah Jones and Ed Sheeran, mostly tagged as sleep_ballad or calm_ballad, which are fitting for a 'home/sleep' context. However, the repetition reduces the variety within the playlist, which could affect the perceived consistency in terms of offering a dynamic listening experience. Otherwise, the mood and tags are consistent with the context.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['Norah Jones - Come Away With Me', 'Norah Jones - Come Away With Me', 'Norah Jones - Come Away With Me', 'Ed Sheeran - Perfect', 'Ed Sheeran - Photograph', 'Ed Sheeran - Photograph', 'Norah Jones - Come Away With Me', 'Billie Eilish - i love you', 'Elvis Presley - Love Me Tender', 'Leon Bridges - River']</t>
+          <t>['Norah Jones - Come Away With Me', 'Ed Sheeran - Photograph', 'John Legend - All of Me', 'Ed Sheeran - Photograph', 'Norah Jones - Come Away With Me', 'Sam Smith - Lullaby', 'Ed Sheeran - Photograph', 'Ed Sheeran - Photograph', 'Norah Jones - Come Away With Me', 'Norah Jones - Come Away With Me']</t>
         </is>
       </c>
     </row>
